--- a/RTK2.xlsx
+++ b/RTK2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\デスクトップ\first-git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -704,7 +704,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -838,7 +838,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:B16" si="0">189-35</f>
+        <f t="shared" ref="B8" si="0">189-35</f>
         <v>154</v>
       </c>
       <c r="C8">
@@ -892,7 +892,7 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <f t="shared" ref="B11:B16" si="1">189-31</f>
+        <f t="shared" ref="B11" si="1">189-31</f>
         <v>158</v>
       </c>
       <c r="C11">
